--- a/data/pca/factorExposure/factorExposure_2012-03-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0166263471185965</v>
+        <v>0.01629348139391178</v>
       </c>
       <c r="C2">
-        <v>0.03448632942883689</v>
+        <v>0.02798458087084395</v>
       </c>
       <c r="D2">
-        <v>0.007039390934671673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0001280335172613782</v>
+      </c>
+      <c r="E2">
+        <v>-0.009524909611701141</v>
+      </c>
+      <c r="F2">
+        <v>0.01150630092703789</v>
+      </c>
+      <c r="G2">
+        <v>0.01700529870834134</v>
+      </c>
+      <c r="H2">
+        <v>-0.05294722235116762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07419213765848856</v>
+        <v>0.08803428032445994</v>
       </c>
       <c r="C4">
-        <v>0.05254610296405727</v>
+        <v>0.03767637675273161</v>
       </c>
       <c r="D4">
-        <v>-0.08068833110172319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06503596690105826</v>
+      </c>
+      <c r="E4">
+        <v>-0.01482737914721307</v>
+      </c>
+      <c r="F4">
+        <v>0.03002431832112503</v>
+      </c>
+      <c r="G4">
+        <v>0.003870566874435891</v>
+      </c>
+      <c r="H4">
+        <v>0.04075788039635226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1092755182787187</v>
+        <v>0.1196009993845833</v>
       </c>
       <c r="C6">
-        <v>0.05701622243600857</v>
+        <v>0.03440884866887334</v>
       </c>
       <c r="D6">
-        <v>0.006862556405298614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01124027016385836</v>
+      </c>
+      <c r="E6">
+        <v>0.00303039165968634</v>
+      </c>
+      <c r="F6">
+        <v>0.05340582537286717</v>
+      </c>
+      <c r="G6">
+        <v>0.03226106720139787</v>
+      </c>
+      <c r="H6">
+        <v>-0.1080132019522629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04871682005614639</v>
+        <v>0.06385561402461958</v>
       </c>
       <c r="C7">
-        <v>0.02797235369081852</v>
+        <v>0.02013912799715884</v>
       </c>
       <c r="D7">
-        <v>-0.04622463821562764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04619901336207084</v>
+      </c>
+      <c r="E7">
+        <v>-0.03669521643934594</v>
+      </c>
+      <c r="F7">
+        <v>0.03339856400116445</v>
+      </c>
+      <c r="G7">
+        <v>-0.03686321878184025</v>
+      </c>
+      <c r="H7">
+        <v>0.005758414654143626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0373013125242244</v>
+        <v>0.04061080794807455</v>
       </c>
       <c r="C8">
-        <v>0.01118295626058507</v>
+        <v>0.007051396978810915</v>
       </c>
       <c r="D8">
-        <v>-0.04936743796543627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02026602586660418</v>
+      </c>
+      <c r="E8">
+        <v>-0.03735141077866701</v>
+      </c>
+      <c r="F8">
+        <v>0.04778094260085867</v>
+      </c>
+      <c r="G8">
+        <v>0.05547614036850693</v>
+      </c>
+      <c r="H8">
+        <v>-0.004056014988071922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06713159458681275</v>
+        <v>0.07899078031249161</v>
       </c>
       <c r="C9">
-        <v>0.04199533769576209</v>
+        <v>0.02769809404159326</v>
       </c>
       <c r="D9">
-        <v>-0.07155965090673606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06372802095667265</v>
+      </c>
+      <c r="E9">
+        <v>-0.03828941162802578</v>
+      </c>
+      <c r="F9">
+        <v>0.03052456028402568</v>
+      </c>
+      <c r="G9">
+        <v>0.008121465088147565</v>
+      </c>
+      <c r="H9">
+        <v>0.04768651027370194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02937135256179546</v>
+        <v>0.03449112420009283</v>
       </c>
       <c r="C10">
-        <v>0.03487641169300538</v>
+        <v>0.0432884487842906</v>
       </c>
       <c r="D10">
-        <v>0.1822915008658651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1699767580453642</v>
+      </c>
+      <c r="E10">
+        <v>-0.04932289036442242</v>
+      </c>
+      <c r="F10">
+        <v>0.04583251799908128</v>
+      </c>
+      <c r="G10">
+        <v>-0.03064459494030697</v>
+      </c>
+      <c r="H10">
+        <v>-0.04485376623944043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07007587090811536</v>
+        <v>0.07625493420138417</v>
       </c>
       <c r="C11">
-        <v>0.04730862983233842</v>
+        <v>0.02757211229438129</v>
       </c>
       <c r="D11">
-        <v>-0.05586143883804077</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06312362778025757</v>
+      </c>
+      <c r="E11">
+        <v>0.002457713718585198</v>
+      </c>
+      <c r="F11">
+        <v>0.02675973652148741</v>
+      </c>
+      <c r="G11">
+        <v>-0.004533563007582106</v>
+      </c>
+      <c r="H11">
+        <v>0.08666739962930464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05776616134990895</v>
+        <v>0.0671094623443531</v>
       </c>
       <c r="C12">
-        <v>0.05182112418507497</v>
+        <v>0.0364671855125886</v>
       </c>
       <c r="D12">
-        <v>-0.04362944047104944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04856452955994107</v>
+      </c>
+      <c r="E12">
+        <v>-0.01319774163144648</v>
+      </c>
+      <c r="F12">
+        <v>0.01909537286535028</v>
+      </c>
+      <c r="G12">
+        <v>0.001407085800795362</v>
+      </c>
+      <c r="H12">
+        <v>0.04457028519335799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06002092351535485</v>
+        <v>0.06555392263082391</v>
       </c>
       <c r="C13">
-        <v>0.03998644342392067</v>
+        <v>0.02518894489198331</v>
       </c>
       <c r="D13">
-        <v>-0.06267134388451333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04127042246374795</v>
+      </c>
+      <c r="E13">
+        <v>-0.01397280995743738</v>
+      </c>
+      <c r="F13">
+        <v>0.003577368659728975</v>
+      </c>
+      <c r="G13">
+        <v>-0.009213949437980505</v>
+      </c>
+      <c r="H13">
+        <v>0.03884732086971027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03287170790626429</v>
+        <v>0.04169028201655558</v>
       </c>
       <c r="C14">
-        <v>0.03219999622219215</v>
+        <v>0.02831258629415201</v>
       </c>
       <c r="D14">
-        <v>0.0001483398710932663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.004918325641983014</v>
+      </c>
+      <c r="E14">
+        <v>-0.03235293875674761</v>
+      </c>
+      <c r="F14">
+        <v>0.0115069401984128</v>
+      </c>
+      <c r="G14">
+        <v>0.004938229886657851</v>
+      </c>
+      <c r="H14">
+        <v>0.05569489545186872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03867154451516346</v>
+        <v>0.03953692646904041</v>
       </c>
       <c r="C15">
-        <v>0.0104953127169126</v>
+        <v>0.00319142029624863</v>
       </c>
       <c r="D15">
-        <v>-0.01705695837392076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003412446677086101</v>
+      </c>
+      <c r="E15">
+        <v>-0.04129838104155004</v>
+      </c>
+      <c r="F15">
+        <v>-0.007454133711246552</v>
+      </c>
+      <c r="G15">
+        <v>0.02481589246222405</v>
+      </c>
+      <c r="H15">
+        <v>0.03616566412158882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06080364959783103</v>
+        <v>0.07030541759091428</v>
       </c>
       <c r="C16">
-        <v>0.04332566499993278</v>
+        <v>0.02824103387842255</v>
       </c>
       <c r="D16">
-        <v>-0.04532332885976256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06237407140037155</v>
+      </c>
+      <c r="E16">
+        <v>-0.006668558256189073</v>
+      </c>
+      <c r="F16">
+        <v>0.02383868492289665</v>
+      </c>
+      <c r="G16">
+        <v>-0.003877335273269922</v>
+      </c>
+      <c r="H16">
+        <v>0.05278437364046763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06403880916259365</v>
+        <v>0.06329703760261289</v>
       </c>
       <c r="C20">
-        <v>0.03133631410101089</v>
+        <v>0.0129096929441794</v>
       </c>
       <c r="D20">
-        <v>-0.04855423128699373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04047527461875775</v>
+      </c>
+      <c r="E20">
+        <v>-0.03407865610509067</v>
+      </c>
+      <c r="F20">
+        <v>0.01480506785063942</v>
+      </c>
+      <c r="G20">
+        <v>0.009152948034830322</v>
+      </c>
+      <c r="H20">
+        <v>0.04404677092539359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02371979380856394</v>
+        <v>0.02450816440703405</v>
       </c>
       <c r="C21">
-        <v>-0.0030308416030745</v>
+        <v>-0.01058519889961988</v>
       </c>
       <c r="D21">
-        <v>-0.02448816986311686</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02757009042191868</v>
+      </c>
+      <c r="E21">
+        <v>-0.0417163546694388</v>
+      </c>
+      <c r="F21">
+        <v>-0.01469634036946926</v>
+      </c>
+      <c r="G21">
+        <v>0.009610861465330368</v>
+      </c>
+      <c r="H21">
+        <v>-0.04938204415724142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07733810123193148</v>
+        <v>0.07187847641597196</v>
       </c>
       <c r="C22">
-        <v>0.0604477161285614</v>
+        <v>0.03945272478011282</v>
       </c>
       <c r="D22">
-        <v>-0.0984108957678316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06593081803496992</v>
+      </c>
+      <c r="E22">
+        <v>-0.5662632113714098</v>
+      </c>
+      <c r="F22">
+        <v>-0.2375424138193073</v>
+      </c>
+      <c r="G22">
+        <v>-0.07198097154083867</v>
+      </c>
+      <c r="H22">
+        <v>-0.1554161038301738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07830721168014537</v>
+        <v>0.07250866183281425</v>
       </c>
       <c r="C23">
-        <v>0.05934931323275654</v>
+        <v>0.03813723937201219</v>
       </c>
       <c r="D23">
-        <v>-0.1000007565826667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06679761672928393</v>
+      </c>
+      <c r="E23">
+        <v>-0.5656933083780422</v>
+      </c>
+      <c r="F23">
+        <v>-0.2362061473207443</v>
+      </c>
+      <c r="G23">
+        <v>-0.0705911733747963</v>
+      </c>
+      <c r="H23">
+        <v>-0.150424312403408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07113245452602607</v>
+        <v>0.07965430334640253</v>
       </c>
       <c r="C24">
-        <v>0.052064049174194</v>
+        <v>0.03370986700671878</v>
       </c>
       <c r="D24">
-        <v>-0.05742734418227933</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06019544668324486</v>
+      </c>
+      <c r="E24">
+        <v>-0.01667519976092357</v>
+      </c>
+      <c r="F24">
+        <v>0.03348964998961859</v>
+      </c>
+      <c r="G24">
+        <v>0.01037296930384082</v>
+      </c>
+      <c r="H24">
+        <v>0.05779539813809049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07035247129842719</v>
+        <v>0.07720991200181458</v>
       </c>
       <c r="C25">
-        <v>0.05675971287664433</v>
+        <v>0.03818073466180639</v>
       </c>
       <c r="D25">
-        <v>-0.06591726510525815</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05235125789034653</v>
+      </c>
+      <c r="E25">
+        <v>-0.02039681864571696</v>
+      </c>
+      <c r="F25">
+        <v>0.0239644511724975</v>
+      </c>
+      <c r="G25">
+        <v>0.0182533915034481</v>
+      </c>
+      <c r="H25">
+        <v>0.058477028828946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04471246576329552</v>
+        <v>0.04720764705021343</v>
       </c>
       <c r="C26">
-        <v>0.01046644722670821</v>
+        <v>0.002357430428293608</v>
       </c>
       <c r="D26">
-        <v>-0.01222459271475983</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01876715354550082</v>
+      </c>
+      <c r="E26">
+        <v>-0.05291487320375161</v>
+      </c>
+      <c r="F26">
+        <v>0.01921733516567661</v>
+      </c>
+      <c r="G26">
+        <v>-0.007000457339785675</v>
+      </c>
+      <c r="H26">
+        <v>0.04949408610539509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05225513336212962</v>
+        <v>0.06217423414972483</v>
       </c>
       <c r="C28">
-        <v>0.07720293800039479</v>
+        <v>0.08759869729230341</v>
       </c>
       <c r="D28">
-        <v>0.3145115943030675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3064297327924413</v>
+      </c>
+      <c r="E28">
+        <v>-0.02568998383629839</v>
+      </c>
+      <c r="F28">
+        <v>0.05448948896970151</v>
+      </c>
+      <c r="G28">
+        <v>0.03672081774817096</v>
+      </c>
+      <c r="H28">
+        <v>-0.03974272575453502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03979281792501414</v>
+        <v>0.04819039714941148</v>
       </c>
       <c r="C29">
-        <v>0.03157096182744525</v>
+        <v>0.02640091929009969</v>
       </c>
       <c r="D29">
-        <v>-0.0008123883946506841</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.005249765699787078</v>
+      </c>
+      <c r="E29">
+        <v>-0.05554425059544077</v>
+      </c>
+      <c r="F29">
+        <v>-0.001188592094861537</v>
+      </c>
+      <c r="G29">
+        <v>-0.01286992836321555</v>
+      </c>
+      <c r="H29">
+        <v>0.0777861249174701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1274865233675093</v>
+        <v>0.1323030998924431</v>
       </c>
       <c r="C30">
-        <v>0.09614821412887142</v>
+        <v>0.0645415557687888</v>
       </c>
       <c r="D30">
-        <v>-0.1126991000547866</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07015521763017386</v>
+      </c>
+      <c r="E30">
+        <v>-0.08444949267967862</v>
+      </c>
+      <c r="F30">
+        <v>-0.02468502874296392</v>
+      </c>
+      <c r="G30">
+        <v>0.07702813148750767</v>
+      </c>
+      <c r="H30">
+        <v>-0.03820237560177064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04201652743002497</v>
+        <v>0.04890999460036378</v>
       </c>
       <c r="C31">
-        <v>0.02282447168054684</v>
+        <v>0.01511330187611479</v>
       </c>
       <c r="D31">
-        <v>-0.02696909430061195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02520199765458593</v>
+      </c>
+      <c r="E31">
+        <v>-0.02712560406807768</v>
+      </c>
+      <c r="F31">
+        <v>0.008365786916828575</v>
+      </c>
+      <c r="G31">
+        <v>-0.02933443805017777</v>
+      </c>
+      <c r="H31">
+        <v>0.06209765130153944</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03524287908228158</v>
+        <v>0.03866232229021152</v>
       </c>
       <c r="C32">
-        <v>0.02404265625048866</v>
+        <v>0.01858552026828802</v>
       </c>
       <c r="D32">
-        <v>-0.02751147808033384</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01160186020979682</v>
+      </c>
+      <c r="E32">
+        <v>-0.07123354481917243</v>
+      </c>
+      <c r="F32">
+        <v>-0.01962744217069504</v>
+      </c>
+      <c r="G32">
+        <v>0.01992744362104158</v>
+      </c>
+      <c r="H32">
+        <v>0.07193967780567596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08224032432532564</v>
+        <v>0.09520673411085134</v>
       </c>
       <c r="C33">
-        <v>0.04414820264505855</v>
+        <v>0.02667430345425831</v>
       </c>
       <c r="D33">
-        <v>-0.06614634040411739</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04904796222945362</v>
+      </c>
+      <c r="E33">
+        <v>-0.01514497039614793</v>
+      </c>
+      <c r="F33">
+        <v>0.001878757291491619</v>
+      </c>
+      <c r="G33">
+        <v>-0.008744723013322797</v>
+      </c>
+      <c r="H33">
+        <v>0.05962736258766891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05626744651386981</v>
+        <v>0.06231895451733396</v>
       </c>
       <c r="C34">
-        <v>0.02913587728011542</v>
+        <v>0.01394298883879315</v>
       </c>
       <c r="D34">
-        <v>-0.05541989887324823</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05378541067671137</v>
+      </c>
+      <c r="E34">
+        <v>-0.009113107246498222</v>
+      </c>
+      <c r="F34">
+        <v>0.01717824688980806</v>
+      </c>
+      <c r="G34">
+        <v>0.0005019914371945453</v>
+      </c>
+      <c r="H34">
+        <v>0.05691582021858566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03685590958381189</v>
+        <v>0.04022659241334407</v>
       </c>
       <c r="C35">
-        <v>0.00875655908096731</v>
+        <v>0.00364488792257287</v>
       </c>
       <c r="D35">
-        <v>-0.007079694503294038</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.008109495570544764</v>
+      </c>
+      <c r="E35">
+        <v>-0.01794673742255572</v>
+      </c>
+      <c r="F35">
+        <v>-0.01869950959481861</v>
+      </c>
+      <c r="G35">
+        <v>-0.01253984465085786</v>
+      </c>
+      <c r="H35">
+        <v>0.01808739438123805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02035663679584785</v>
+        <v>0.02759614434859256</v>
       </c>
       <c r="C36">
-        <v>0.01790748087780791</v>
+        <v>0.01433128367098766</v>
       </c>
       <c r="D36">
-        <v>-0.0171011009096649</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01244008987582085</v>
+      </c>
+      <c r="E36">
+        <v>-0.04379084406421434</v>
+      </c>
+      <c r="F36">
+        <v>0.01295234530867499</v>
+      </c>
+      <c r="G36">
+        <v>-0.01016472651741858</v>
+      </c>
+      <c r="H36">
+        <v>0.04155801596271298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03929424941852149</v>
+        <v>0.04425720495586673</v>
       </c>
       <c r="C38">
-        <v>0.004190473639395486</v>
+        <v>-0.0007543522265650445</v>
       </c>
       <c r="D38">
-        <v>-0.01663371877819475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01609024496556886</v>
+      </c>
+      <c r="E38">
+        <v>-0.05171172536384464</v>
+      </c>
+      <c r="F38">
+        <v>-0.01678413106850904</v>
+      </c>
+      <c r="G38">
+        <v>0.007059101970177904</v>
+      </c>
+      <c r="H38">
+        <v>0.03187307573006304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08970808624753851</v>
+        <v>0.102137762384115</v>
       </c>
       <c r="C39">
-        <v>0.07253820825944639</v>
+        <v>0.05074725232844187</v>
       </c>
       <c r="D39">
-        <v>-0.06655945374620956</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06462887089063241</v>
+      </c>
+      <c r="E39">
+        <v>-0.0002010832653769946</v>
+      </c>
+      <c r="F39">
+        <v>0.003305925471234066</v>
+      </c>
+      <c r="G39">
+        <v>0.03038824288782757</v>
+      </c>
+      <c r="H39">
+        <v>0.05475756955408742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0746249645382424</v>
+        <v>0.07168358043086033</v>
       </c>
       <c r="C40">
-        <v>0.04173135645402641</v>
+        <v>0.02025592792880513</v>
       </c>
       <c r="D40">
-        <v>0.002940754553294145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0118725975440973</v>
+      </c>
+      <c r="E40">
+        <v>-0.0201954992429037</v>
+      </c>
+      <c r="F40">
+        <v>-0.05440882876613173</v>
+      </c>
+      <c r="G40">
+        <v>0.05744531781637498</v>
+      </c>
+      <c r="H40">
+        <v>-0.1051169339427415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04059862535445614</v>
+        <v>0.04351309894382813</v>
       </c>
       <c r="C41">
-        <v>0.005645083551280878</v>
+        <v>-0.001891983430351283</v>
       </c>
       <c r="D41">
-        <v>-0.03779807379978913</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.034367084250991</v>
+      </c>
+      <c r="E41">
+        <v>-0.004514702467651355</v>
+      </c>
+      <c r="F41">
+        <v>-0.01687509054856</v>
+      </c>
+      <c r="G41">
+        <v>0.009293938895572914</v>
+      </c>
+      <c r="H41">
+        <v>0.03257624012901746</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04714407806053421</v>
+        <v>0.05751716367641407</v>
       </c>
       <c r="C43">
-        <v>0.0262862886174211</v>
+        <v>0.01766953008930154</v>
       </c>
       <c r="D43">
-        <v>-0.01802656529739535</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02550432852968195</v>
+      </c>
+      <c r="E43">
+        <v>-0.01950338893259395</v>
+      </c>
+      <c r="F43">
+        <v>0.009081420851765731</v>
+      </c>
+      <c r="G43">
+        <v>-0.01968526306013072</v>
+      </c>
+      <c r="H43">
+        <v>0.0506767884772609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09325190213906062</v>
+        <v>0.09501854474478939</v>
       </c>
       <c r="C44">
-        <v>0.09353080059597847</v>
+        <v>0.0653886409617196</v>
       </c>
       <c r="D44">
-        <v>-0.0813976502369405</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06079716547661543</v>
+      </c>
+      <c r="E44">
+        <v>-0.09396670849245109</v>
+      </c>
+      <c r="F44">
+        <v>0.03567986385457775</v>
+      </c>
+      <c r="G44">
+        <v>0.0278283424719856</v>
+      </c>
+      <c r="H44">
+        <v>0.02334339655316654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02459699647441966</v>
+        <v>0.03320559055765788</v>
       </c>
       <c r="C46">
-        <v>0.01443527201888638</v>
+        <v>0.01184207006106341</v>
       </c>
       <c r="D46">
-        <v>-0.01959121348288034</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03082483051920179</v>
+      </c>
+      <c r="E46">
+        <v>-0.02918114660822338</v>
+      </c>
+      <c r="F46">
+        <v>0.01465776847625864</v>
+      </c>
+      <c r="G46">
+        <v>-0.002978728020489377</v>
+      </c>
+      <c r="H46">
+        <v>0.03609428627658313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03025829430342152</v>
+        <v>0.03808117306954502</v>
       </c>
       <c r="C47">
-        <v>0.02484050656001991</v>
+        <v>0.02019428815457529</v>
       </c>
       <c r="D47">
-        <v>-0.01044458420993722</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.009523030781458872</v>
+      </c>
+      <c r="E47">
+        <v>-0.05035040480508986</v>
+      </c>
+      <c r="F47">
+        <v>0.006289244521940071</v>
+      </c>
+      <c r="G47">
+        <v>-0.04291364442498636</v>
+      </c>
+      <c r="H47">
+        <v>0.0222978079142888</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03179802626464837</v>
+        <v>0.03749279184369448</v>
       </c>
       <c r="C48">
-        <v>0.01820268924198033</v>
+        <v>0.0117049821759228</v>
       </c>
       <c r="D48">
-        <v>-0.02998900762968778</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01890440314614322</v>
+      </c>
+      <c r="E48">
+        <v>-0.04318322531779854</v>
+      </c>
+      <c r="F48">
+        <v>-0.0004318702840652514</v>
+      </c>
+      <c r="G48">
+        <v>0.01147653718182729</v>
+      </c>
+      <c r="H48">
+        <v>0.04043062888057071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1632879769352469</v>
+        <v>0.1907898369703681</v>
       </c>
       <c r="C49">
-        <v>0.06423122965900137</v>
+        <v>0.0360867599402985</v>
       </c>
       <c r="D49">
-        <v>0.02048963241357694</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02911558440399727</v>
+      </c>
+      <c r="E49">
+        <v>0.1470003071464928</v>
+      </c>
+      <c r="F49">
+        <v>0.08246355177683722</v>
+      </c>
+      <c r="G49">
+        <v>-0.04901185254050026</v>
+      </c>
+      <c r="H49">
+        <v>-0.2372243900414792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03900564187992942</v>
+        <v>0.04595533121837737</v>
       </c>
       <c r="C50">
-        <v>0.0265733072607582</v>
+        <v>0.01919564688217974</v>
       </c>
       <c r="D50">
-        <v>-0.03517426917500079</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02949748049597095</v>
+      </c>
+      <c r="E50">
+        <v>-0.05080762760345355</v>
+      </c>
+      <c r="F50">
+        <v>0.009449969503228062</v>
+      </c>
+      <c r="G50">
+        <v>-0.02404871317234709</v>
+      </c>
+      <c r="H50">
+        <v>0.0596210175920447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02510417782149174</v>
+        <v>0.02977332665158504</v>
       </c>
       <c r="C51">
-        <v>0.008727017452015085</v>
+        <v>0.004072239984050678</v>
       </c>
       <c r="D51">
-        <v>-0.01656808983356546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01410540765375312</v>
+      </c>
+      <c r="E51">
+        <v>-0.01295048298623644</v>
+      </c>
+      <c r="F51">
+        <v>0.01877176827545929</v>
+      </c>
+      <c r="G51">
+        <v>8.582349700168154e-05</v>
+      </c>
+      <c r="H51">
+        <v>-0.002236380659099271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1521157759043191</v>
+        <v>0.1631233154111655</v>
       </c>
       <c r="C53">
-        <v>0.08032558860061143</v>
+        <v>0.05268671838551284</v>
       </c>
       <c r="D53">
-        <v>-0.02083970864292607</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0182570014882298</v>
+      </c>
+      <c r="E53">
+        <v>0.02756080652383412</v>
+      </c>
+      <c r="F53">
+        <v>0.02028624768757094</v>
+      </c>
+      <c r="G53">
+        <v>-0.0246693260639201</v>
+      </c>
+      <c r="H53">
+        <v>0.175955335418383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05567912998666114</v>
+        <v>0.05790986396716208</v>
       </c>
       <c r="C54">
-        <v>0.02693357850957102</v>
+        <v>0.01508555296011608</v>
       </c>
       <c r="D54">
-        <v>-0.02191669270161061</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01748678655975592</v>
+      </c>
+      <c r="E54">
+        <v>-0.05047256510785388</v>
+      </c>
+      <c r="F54">
+        <v>0.00256542893225927</v>
+      </c>
+      <c r="G54">
+        <v>0.01196257596335654</v>
+      </c>
+      <c r="H54">
+        <v>0.04720327576273245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09996302094550941</v>
+        <v>0.1038991440191621</v>
       </c>
       <c r="C55">
-        <v>0.05503467369546489</v>
+        <v>0.0343876068881537</v>
       </c>
       <c r="D55">
-        <v>-0.02268653569801891</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02270019960291935</v>
+      </c>
+      <c r="E55">
+        <v>-0.01863487630872774</v>
+      </c>
+      <c r="F55">
+        <v>0.01534933840335713</v>
+      </c>
+      <c r="G55">
+        <v>-0.01882345937408561</v>
+      </c>
+      <c r="H55">
+        <v>0.151734323956263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1472137493829082</v>
+        <v>0.1607798883027224</v>
       </c>
       <c r="C56">
-        <v>0.09177300077243548</v>
+        <v>0.06368050194376317</v>
       </c>
       <c r="D56">
-        <v>-0.0182660697817853</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01857387724344678</v>
+      </c>
+      <c r="E56">
+        <v>0.02403828422005161</v>
+      </c>
+      <c r="F56">
+        <v>0.04018513221019862</v>
+      </c>
+      <c r="G56">
+        <v>-0.0365453542535981</v>
+      </c>
+      <c r="H56">
+        <v>0.1760937015232067</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1265489128868258</v>
+        <v>0.09727506455632015</v>
       </c>
       <c r="C58">
-        <v>0.008255131171678441</v>
+        <v>-0.03568312719421741</v>
       </c>
       <c r="D58">
-        <v>-0.02571595768235842</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03868444629616457</v>
+      </c>
+      <c r="E58">
+        <v>-0.1712813727332707</v>
+      </c>
+      <c r="F58">
+        <v>-0.01529640008790925</v>
+      </c>
+      <c r="G58">
+        <v>-0.03097316183179104</v>
+      </c>
+      <c r="H58">
+        <v>-0.2398891734812084</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1179149983086021</v>
+        <v>0.1366206615969694</v>
       </c>
       <c r="C59">
-        <v>0.07996833752845223</v>
+        <v>0.08735798114324043</v>
       </c>
       <c r="D59">
-        <v>0.3493665001571748</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3628671090680842</v>
+      </c>
+      <c r="E59">
+        <v>-0.02307112977716206</v>
+      </c>
+      <c r="F59">
+        <v>0.0199625958118342</v>
+      </c>
+      <c r="G59">
+        <v>-0.02373134463571656</v>
+      </c>
+      <c r="H59">
+        <v>-0.0006471545332917443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2032442959964629</v>
+        <v>0.2321294413150568</v>
       </c>
       <c r="C60">
-        <v>0.1058456924793686</v>
+        <v>0.06818761043130767</v>
       </c>
       <c r="D60">
-        <v>-0.003301724908179104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03937619630147077</v>
+      </c>
+      <c r="E60">
+        <v>0.09258979100677879</v>
+      </c>
+      <c r="F60">
+        <v>0.07052541059461011</v>
+      </c>
+      <c r="G60">
+        <v>0.0289137563452507</v>
+      </c>
+      <c r="H60">
+        <v>-0.1526354440499016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07844240102801266</v>
+        <v>0.08812604887400891</v>
       </c>
       <c r="C61">
-        <v>0.05219816828428916</v>
+        <v>0.03677445567599263</v>
       </c>
       <c r="D61">
-        <v>-0.05161346805636927</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04496757390148495</v>
+      </c>
+      <c r="E61">
+        <v>0.002535258242171053</v>
+      </c>
+      <c r="F61">
+        <v>0.00329910990353841</v>
+      </c>
+      <c r="G61">
+        <v>-0.003437031572656804</v>
+      </c>
+      <c r="H61">
+        <v>0.06879540098978706</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1277638201170316</v>
+        <v>0.139758324398312</v>
       </c>
       <c r="C62">
-        <v>0.06633506089365687</v>
+        <v>0.04180997870417571</v>
       </c>
       <c r="D62">
-        <v>-0.03010900236314935</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.02898391525450781</v>
+      </c>
+      <c r="E62">
+        <v>0.06175055385597486</v>
+      </c>
+      <c r="F62">
+        <v>0.02030638550595336</v>
+      </c>
+      <c r="G62">
+        <v>0.006915300857753701</v>
+      </c>
+      <c r="H62">
+        <v>0.1951926837706437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0506268753914902</v>
+        <v>0.05028727190013778</v>
       </c>
       <c r="C63">
-        <v>0.02503968618759856</v>
+        <v>0.01263784032033857</v>
       </c>
       <c r="D63">
-        <v>-0.02140145647346607</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02034815908304623</v>
+      </c>
+      <c r="E63">
+        <v>-0.05272882927624282</v>
+      </c>
+      <c r="F63">
+        <v>-0.01683120734263363</v>
+      </c>
+      <c r="G63">
+        <v>0.01968437445817863</v>
+      </c>
+      <c r="H63">
+        <v>0.05649620224903058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1046995964732622</v>
+        <v>0.1089607950856473</v>
       </c>
       <c r="C64">
-        <v>0.02414409846278599</v>
+        <v>0.003931866283003244</v>
       </c>
       <c r="D64">
-        <v>-0.06046334908980087</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0406846192576872</v>
+      </c>
+      <c r="E64">
+        <v>-0.04725669362790403</v>
+      </c>
+      <c r="F64">
+        <v>0.04109029219278597</v>
+      </c>
+      <c r="G64">
+        <v>0.04747747689941615</v>
+      </c>
+      <c r="H64">
+        <v>0.06118986289968981</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1218261298365293</v>
+        <v>0.1261582441483325</v>
       </c>
       <c r="C65">
-        <v>0.06215478935967893</v>
+        <v>0.03916459454749509</v>
       </c>
       <c r="D65">
-        <v>0.02147364443728087</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.003689855609292235</v>
+      </c>
+      <c r="E65">
+        <v>-0.01592155153111718</v>
+      </c>
+      <c r="F65">
+        <v>0.05282954315650885</v>
+      </c>
+      <c r="G65">
+        <v>0.05945681449845667</v>
+      </c>
+      <c r="H65">
+        <v>-0.1379217457159315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1407783620908573</v>
+        <v>0.153629907554244</v>
       </c>
       <c r="C66">
-        <v>0.07768954718965655</v>
+        <v>0.04712524402008031</v>
       </c>
       <c r="D66">
-        <v>-0.1226904737691272</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.101460644615458</v>
+      </c>
+      <c r="E66">
+        <v>0.02906911748302774</v>
+      </c>
+      <c r="F66">
+        <v>0.01667435392624489</v>
+      </c>
+      <c r="G66">
+        <v>0.04079620012018166</v>
+      </c>
+      <c r="H66">
+        <v>0.1305058809528577</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07140846880139691</v>
+        <v>0.08358207765671793</v>
       </c>
       <c r="C67">
-        <v>0.01445196328353543</v>
+        <v>0.005366175996409927</v>
       </c>
       <c r="D67">
-        <v>-0.02223630263338133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02995416441143405</v>
+      </c>
+      <c r="E67">
+        <v>-0.02214809801785853</v>
+      </c>
+      <c r="F67">
+        <v>0.01504746748869476</v>
+      </c>
+      <c r="G67">
+        <v>-0.01131649522908299</v>
+      </c>
+      <c r="H67">
+        <v>0.0337832933923192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05901103414347184</v>
+        <v>0.05780942020202783</v>
       </c>
       <c r="C68">
-        <v>0.05260535229789463</v>
+        <v>0.05935194299862944</v>
       </c>
       <c r="D68">
-        <v>0.2537403836301115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2694701411033107</v>
+      </c>
+      <c r="E68">
+        <v>-0.03494392288808104</v>
+      </c>
+      <c r="F68">
+        <v>0.01475557667218899</v>
+      </c>
+      <c r="G68">
+        <v>-0.01363020515712922</v>
+      </c>
+      <c r="H68">
+        <v>0.003915834701264292</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0525694165232606</v>
+        <v>0.05317515152426448</v>
       </c>
       <c r="C69">
-        <v>0.0182111769163766</v>
+        <v>0.005714986161985217</v>
       </c>
       <c r="D69">
-        <v>-0.01741698807273205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01503807029514708</v>
+      </c>
+      <c r="E69">
+        <v>-0.02414896170204738</v>
+      </c>
+      <c r="F69">
+        <v>-0.009406720029457192</v>
+      </c>
+      <c r="G69">
+        <v>-0.02159206133450628</v>
+      </c>
+      <c r="H69">
+        <v>0.04762098764583532</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005349438764856448</v>
+        <v>0.02666319399567241</v>
       </c>
       <c r="C70">
-        <v>-0.006068793494011532</v>
+        <v>-0.000660381070543828</v>
       </c>
       <c r="D70">
-        <v>-0.0001543980367885254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.002242090033090758</v>
+      </c>
+      <c r="E70">
+        <v>0.02441030039745299</v>
+      </c>
+      <c r="F70">
+        <v>0.02403264934644386</v>
+      </c>
+      <c r="G70">
+        <v>-0.02134288004373817</v>
+      </c>
+      <c r="H70">
+        <v>-0.03600092912256096</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05845932319297702</v>
+        <v>0.06024199273522812</v>
       </c>
       <c r="C71">
-        <v>0.0527950704786601</v>
+        <v>0.06362022337162525</v>
       </c>
       <c r="D71">
-        <v>0.294744658216145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2951580063842942</v>
+      </c>
+      <c r="E71">
+        <v>-0.03143167506218281</v>
+      </c>
+      <c r="F71">
+        <v>0.04366114841220639</v>
+      </c>
+      <c r="G71">
+        <v>-0.002120535619561616</v>
+      </c>
+      <c r="H71">
+        <v>0.009572757388053783</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.138796748761385</v>
+        <v>0.1467979187181</v>
       </c>
       <c r="C72">
-        <v>0.06515112431405994</v>
+        <v>0.03662667487251163</v>
       </c>
       <c r="D72">
-        <v>-0.001299191801152735</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.009107678963887814</v>
+      </c>
+      <c r="E72">
+        <v>0.114202005171537</v>
+      </c>
+      <c r="F72">
+        <v>-0.1569872200185053</v>
+      </c>
+      <c r="G72">
+        <v>0.1217550846226092</v>
+      </c>
+      <c r="H72">
+        <v>0.01923348912213638</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2746743404097476</v>
+        <v>0.2884227094167812</v>
       </c>
       <c r="C73">
-        <v>0.1152075713515894</v>
+        <v>0.04775514852056195</v>
       </c>
       <c r="D73">
-        <v>-0.03994613380285687</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09701949193565018</v>
+      </c>
+      <c r="E73">
+        <v>0.2095504770213947</v>
+      </c>
+      <c r="F73">
+        <v>0.1313531068378497</v>
+      </c>
+      <c r="G73">
+        <v>-0.130599896442255</v>
+      </c>
+      <c r="H73">
+        <v>-0.4897633670797779</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07978861781006118</v>
+        <v>0.09287882199450714</v>
       </c>
       <c r="C74">
-        <v>0.0771591104493249</v>
+        <v>0.05938230679883074</v>
       </c>
       <c r="D74">
-        <v>-0.01624843009886837</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03002770818596439</v>
+      </c>
+      <c r="E74">
+        <v>0.007716538447892953</v>
+      </c>
+      <c r="F74">
+        <v>-0.0008359899545388821</v>
+      </c>
+      <c r="G74">
+        <v>-0.06011893856396949</v>
+      </c>
+      <c r="H74">
+        <v>0.1186271124370127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09366420212580337</v>
+        <v>0.09962510868199335</v>
       </c>
       <c r="C75">
-        <v>0.05505282959594359</v>
+        <v>0.02964250906943341</v>
       </c>
       <c r="D75">
-        <v>-0.00721747510533676</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01488595159523158</v>
+      </c>
+      <c r="E75">
+        <v>-0.008505365768952356</v>
+      </c>
+      <c r="F75">
+        <v>0.02607608520596954</v>
+      </c>
+      <c r="G75">
+        <v>-0.02708452535596099</v>
+      </c>
+      <c r="H75">
+        <v>0.1141306694147633</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1295557076247622</v>
+        <v>0.140631133631773</v>
       </c>
       <c r="C76">
-        <v>0.08412997453304642</v>
+        <v>0.05720040499043264</v>
       </c>
       <c r="D76">
-        <v>-0.05222857641217815</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05094902553640387</v>
+      </c>
+      <c r="E76">
+        <v>-0.02872220484919442</v>
+      </c>
+      <c r="F76">
+        <v>0.04474352959297178</v>
+      </c>
+      <c r="G76">
+        <v>-0.02517738878974244</v>
+      </c>
+      <c r="H76">
+        <v>0.1992866590358226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1131926150068839</v>
+        <v>0.1082698830198197</v>
       </c>
       <c r="C77">
-        <v>0.02112697664149821</v>
+        <v>-0.008017252253257732</v>
       </c>
       <c r="D77">
-        <v>-0.05116813367956589</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02328535092369872</v>
+      </c>
+      <c r="E77">
+        <v>-0.04405131336599596</v>
+      </c>
+      <c r="F77">
+        <v>0.1030439650045911</v>
+      </c>
+      <c r="G77">
+        <v>0.8941413412583417</v>
+      </c>
+      <c r="H77">
+        <v>-0.07450218111927201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09921577742378686</v>
+        <v>0.1383979765232879</v>
       </c>
       <c r="C78">
-        <v>0.04035670583602868</v>
+        <v>0.03283345503820852</v>
       </c>
       <c r="D78">
-        <v>-0.08280243016701823</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0872057271895029</v>
+      </c>
+      <c r="E78">
+        <v>-0.05970979808443401</v>
+      </c>
+      <c r="F78">
+        <v>0.03331418379765862</v>
+      </c>
+      <c r="G78">
+        <v>0.08525944125874861</v>
+      </c>
+      <c r="H78">
+        <v>-0.04271864927194848</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1463234910969235</v>
+        <v>0.1521743020064428</v>
       </c>
       <c r="C79">
-        <v>0.07729983489750278</v>
+        <v>0.04381005784259134</v>
       </c>
       <c r="D79">
-        <v>-0.02841834259441642</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02637949095731267</v>
+      </c>
+      <c r="E79">
+        <v>0.01284201846374589</v>
+      </c>
+      <c r="F79">
+        <v>0.02006505612188349</v>
+      </c>
+      <c r="G79">
+        <v>-0.04140837378518183</v>
+      </c>
+      <c r="H79">
+        <v>0.1725716072165897</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0455037836636697</v>
+        <v>0.0429589667961338</v>
       </c>
       <c r="C80">
-        <v>0.01519327833645538</v>
+        <v>0.005315434092558312</v>
       </c>
       <c r="D80">
-        <v>-0.02874151131232866</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01968184976971227</v>
+      </c>
+      <c r="E80">
+        <v>0.00828296682279929</v>
+      </c>
+      <c r="F80">
+        <v>-0.005583342740322815</v>
+      </c>
+      <c r="G80">
+        <v>-0.03588504361776245</v>
+      </c>
+      <c r="H80">
+        <v>0.03327594099219052</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1142375778197281</v>
+        <v>0.1204804085863163</v>
       </c>
       <c r="C81">
-        <v>0.06527729950728166</v>
+        <v>0.03854474247842356</v>
       </c>
       <c r="D81">
-        <v>-0.03086216299932832</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02292851592661903</v>
+      </c>
+      <c r="E81">
+        <v>-0.02483683435332118</v>
+      </c>
+      <c r="F81">
+        <v>0.01438079060358081</v>
+      </c>
+      <c r="G81">
+        <v>-0.06533778427177865</v>
+      </c>
+      <c r="H81">
+        <v>0.1465878976288333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1302592190769457</v>
+        <v>0.1319234675858983</v>
       </c>
       <c r="C82">
-        <v>0.08072857923747059</v>
+        <v>0.05155121341097309</v>
       </c>
       <c r="D82">
-        <v>-0.01689114254447364</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02750274839099387</v>
+      </c>
+      <c r="E82">
+        <v>0.01388646970979414</v>
+      </c>
+      <c r="F82">
+        <v>0.05960110878829434</v>
+      </c>
+      <c r="G82">
+        <v>-0.05628782497436077</v>
+      </c>
+      <c r="H82">
+        <v>0.2076169831193194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07877774344489293</v>
+        <v>0.08836195319444598</v>
       </c>
       <c r="C83">
-        <v>-0.006433322314146536</v>
+        <v>-0.02232814638646779</v>
       </c>
       <c r="D83">
-        <v>-0.02421013417536094</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03332427810730857</v>
+      </c>
+      <c r="E83">
+        <v>-0.02641860137401953</v>
+      </c>
+      <c r="F83">
+        <v>0.05235723198282718</v>
+      </c>
+      <c r="G83">
+        <v>-0.0745736850661023</v>
+      </c>
+      <c r="H83">
+        <v>-0.06800767386844006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02749477527892243</v>
+        <v>0.03716406820358404</v>
       </c>
       <c r="C84">
-        <v>0.02632403470004799</v>
+        <v>0.02142025740404215</v>
       </c>
       <c r="D84">
-        <v>-0.03376232124259641</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02959068050275831</v>
+      </c>
+      <c r="E84">
+        <v>-0.01876678475945515</v>
+      </c>
+      <c r="F84">
+        <v>-0.05172274372365412</v>
+      </c>
+      <c r="G84">
+        <v>-0.0589631258045332</v>
+      </c>
+      <c r="H84">
+        <v>-0.003487076052809584</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1194861012722341</v>
+        <v>0.1201382279586168</v>
       </c>
       <c r="C85">
-        <v>0.05821797272998083</v>
+        <v>0.02843374631087406</v>
       </c>
       <c r="D85">
-        <v>-0.01904104146562568</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02383285698355274</v>
+      </c>
+      <c r="E85">
+        <v>-0.02550176483992787</v>
+      </c>
+      <c r="F85">
+        <v>0.04020490351140942</v>
+      </c>
+      <c r="G85">
+        <v>-0.03454862581487081</v>
+      </c>
+      <c r="H85">
+        <v>0.1504593466386713</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04974613723609207</v>
+        <v>0.0581542670819075</v>
       </c>
       <c r="C86">
-        <v>0.03040983533376092</v>
+        <v>0.02003119207851406</v>
       </c>
       <c r="D86">
-        <v>-0.02275320696827573</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02331457095430302</v>
+      </c>
+      <c r="E86">
+        <v>-0.06603143124662272</v>
+      </c>
+      <c r="F86">
+        <v>0.02572146436123543</v>
+      </c>
+      <c r="G86">
+        <v>-0.02319456699165189</v>
+      </c>
+      <c r="H86">
+        <v>-0.01316124176241892</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1218140161879602</v>
+        <v>0.1219923479148593</v>
       </c>
       <c r="C87">
-        <v>0.072432150872592</v>
+        <v>0.03644241485327783</v>
       </c>
       <c r="D87">
-        <v>-0.07669295862674626</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07667819963800193</v>
+      </c>
+      <c r="E87">
+        <v>-0.02427787367852036</v>
+      </c>
+      <c r="F87">
+        <v>-0.007630013645090548</v>
+      </c>
+      <c r="G87">
+        <v>0.128928191609601</v>
+      </c>
+      <c r="H87">
+        <v>-0.03369608769981049</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05289825380712131</v>
+        <v>0.06039482667446176</v>
       </c>
       <c r="C88">
-        <v>0.02974167877269149</v>
+        <v>0.01894279783712478</v>
       </c>
       <c r="D88">
-        <v>-0.01809305908676798</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03023889233370046</v>
+      </c>
+      <c r="E88">
+        <v>-0.02019597283824775</v>
+      </c>
+      <c r="F88">
+        <v>0.006616311383043944</v>
+      </c>
+      <c r="G88">
+        <v>0.005541011897709112</v>
+      </c>
+      <c r="H88">
+        <v>0.05163996559800493</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08151184291769922</v>
+        <v>0.09309634699363523</v>
       </c>
       <c r="C89">
-        <v>0.0701279090963699</v>
+        <v>0.08209540733277058</v>
       </c>
       <c r="D89">
-        <v>0.325567723178858</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3467636981953254</v>
+      </c>
+      <c r="E89">
+        <v>-0.07012786067756148</v>
+      </c>
+      <c r="F89">
+        <v>0.08277836305505654</v>
+      </c>
+      <c r="G89">
+        <v>-0.02301298906718426</v>
+      </c>
+      <c r="H89">
+        <v>0.01140186337932301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07325054164545246</v>
+        <v>0.07911893200321389</v>
       </c>
       <c r="C90">
-        <v>0.06318145016327642</v>
+        <v>0.07117444663949632</v>
       </c>
       <c r="D90">
-        <v>0.3247370713701211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3092504738700335</v>
+      </c>
+      <c r="E90">
+        <v>-0.06031522379332097</v>
+      </c>
+      <c r="F90">
+        <v>0.0005491674827788961</v>
+      </c>
+      <c r="G90">
+        <v>-0.002538136206564368</v>
+      </c>
+      <c r="H90">
+        <v>0.00235417002672396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08487280511854856</v>
+        <v>0.0893730336717473</v>
       </c>
       <c r="C91">
-        <v>0.05630274916929521</v>
+        <v>0.03410814938669769</v>
       </c>
       <c r="D91">
-        <v>-0.03340258990741977</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03167331854871691</v>
+      </c>
+      <c r="E91">
+        <v>-0.0153347861504713</v>
+      </c>
+      <c r="F91">
+        <v>0.006374186868012238</v>
+      </c>
+      <c r="G91">
+        <v>-0.05490476346732953</v>
+      </c>
+      <c r="H91">
+        <v>0.07600741446847337</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07429357517330276</v>
+        <v>0.07900769462952602</v>
       </c>
       <c r="C92">
-        <v>0.07416638552076885</v>
+        <v>0.08336702050124947</v>
       </c>
       <c r="D92">
-        <v>0.3433436083407923</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3434805776438432</v>
+      </c>
+      <c r="E92">
+        <v>-0.04465792771381964</v>
+      </c>
+      <c r="F92">
+        <v>0.0378775297489717</v>
+      </c>
+      <c r="G92">
+        <v>0.01150738679242491</v>
+      </c>
+      <c r="H92">
+        <v>0.01783088394916617</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06520150008766458</v>
+        <v>0.076648851440958</v>
       </c>
       <c r="C93">
-        <v>0.06694465775138307</v>
+        <v>0.08121802525484778</v>
       </c>
       <c r="D93">
-        <v>0.3161852732938108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.3058231590625663</v>
+      </c>
+      <c r="E93">
+        <v>-0.03636369015111073</v>
+      </c>
+      <c r="F93">
+        <v>0.03843705229499583</v>
+      </c>
+      <c r="G93">
+        <v>0.01754256622900216</v>
+      </c>
+      <c r="H93">
+        <v>-0.009121272291968458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1320352691842988</v>
+        <v>0.1268244390310641</v>
       </c>
       <c r="C94">
-        <v>0.05770457735249564</v>
+        <v>0.02209566600017822</v>
       </c>
       <c r="D94">
-        <v>-0.042243381275851</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04796809271147879</v>
+      </c>
+      <c r="E94">
+        <v>0.00170120429314179</v>
+      </c>
+      <c r="F94">
+        <v>0.0211580686433784</v>
+      </c>
+      <c r="G94">
+        <v>-0.06458979884008335</v>
+      </c>
+      <c r="H94">
+        <v>0.09548269749708466</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1191367526271578</v>
+        <v>0.1264724496210773</v>
       </c>
       <c r="C95">
-        <v>0.03326970956283198</v>
+        <v>0.004336365192081068</v>
       </c>
       <c r="D95">
-        <v>-0.05524092419296128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06742464947056501</v>
+      </c>
+      <c r="E95">
+        <v>-0.01633696064912088</v>
+      </c>
+      <c r="F95">
+        <v>0.04314279765063677</v>
+      </c>
+      <c r="G95">
+        <v>0.02625369691509972</v>
+      </c>
+      <c r="H95">
+        <v>-0.07186803755027783</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2060971682304471</v>
+        <v>0.2102059416448606</v>
       </c>
       <c r="C97">
-        <v>0.04390335246204526</v>
+        <v>0.001885407859788081</v>
       </c>
       <c r="D97">
-        <v>0.07034981464677084</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.08978839845325831</v>
+      </c>
+      <c r="E97">
+        <v>0.3229779821915049</v>
+      </c>
+      <c r="F97">
+        <v>-0.8654119226833373</v>
+      </c>
+      <c r="G97">
+        <v>0.0679587528455757</v>
+      </c>
+      <c r="H97">
+        <v>0.009415382849725562</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2444378188973219</v>
+        <v>0.274489768382717</v>
       </c>
       <c r="C98">
-        <v>0.07636309391619829</v>
+        <v>0.0331952442845176</v>
       </c>
       <c r="D98">
-        <v>-0.0482637157982035</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.06085376161478642</v>
+      </c>
+      <c r="E98">
+        <v>0.1716446694770277</v>
+      </c>
+      <c r="F98">
+        <v>0.08916568975286364</v>
+      </c>
+      <c r="G98">
+        <v>-0.2291294946123212</v>
+      </c>
+      <c r="H98">
+        <v>-0.2461812244080901</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4568769336518717</v>
+        <v>0.2852530741155647</v>
       </c>
       <c r="C99">
-        <v>-0.8731382332232777</v>
+        <v>-0.9335073550345155</v>
       </c>
       <c r="D99">
-        <v>0.05774475675441451</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1368136115901441</v>
+      </c>
+      <c r="E99">
+        <v>-0.06716759639789741</v>
+      </c>
+      <c r="F99">
+        <v>0.04704569737642022</v>
+      </c>
+      <c r="G99">
+        <v>-0.02309578231535299</v>
+      </c>
+      <c r="H99">
+        <v>0.06623058653760294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03985231780290558</v>
+        <v>0.04828666888093679</v>
       </c>
       <c r="C101">
-        <v>0.03155832496821345</v>
+        <v>0.02648946332204124</v>
       </c>
       <c r="D101">
-        <v>-0.002106301326499978</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.005791298759539876</v>
+      </c>
+      <c r="E101">
+        <v>-0.05458930505690864</v>
+      </c>
+      <c r="F101">
+        <v>-0.001606272794788225</v>
+      </c>
+      <c r="G101">
+        <v>-0.01290452143097085</v>
+      </c>
+      <c r="H101">
+        <v>0.07711590207770216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
